--- a/Data/Книга_с_группировкой_(2).xlsx
+++ b/Data/Книга_с_группировкой_(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учеба\4 course 2 term\Диплом\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDFD5AC-BD63-4E2C-A087-5FC4E8C957DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20119DB-635D-408B-A739-364B28F914D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8388" yWindow="2592" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общие данные" sheetId="1" r:id="rId1"/>
@@ -2173,8 +2173,8 @@
   <dimension ref="A1:BA833"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH55" sqref="E55:AH55"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2185,7 +2185,7 @@
     <col min="53" max="53" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -2317,12 +2317,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>35</v>
       </c>
@@ -2330,9 +2330,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>281</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>80</v>
       </c>
@@ -2402,12 +2402,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -2415,10 +2415,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>36</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>5</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>38</v>
       </c>
@@ -2545,8 +2545,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>80</v>
       </c>
@@ -2614,12 +2614,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>35</v>
       </c>
@@ -2627,9 +2627,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:34" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>36</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>5</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>38</v>
       </c>
@@ -2667,8 +2667,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>80</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>34</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>35</v>
       </c>
@@ -2779,9 +2779,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:34" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -7442,8 +7442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
